--- a/public/data/profit/profit_table_benin.xlsx
+++ b/public/data/profit/profit_table_benin.xlsx
@@ -1890,13 +1890,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-25.39</v>
+        <v>-10.47</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-25.45</v>
+        <v>-12.69</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1908,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-26.07</v>
+        <v>-12.61</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-28.07</v>
+        <v>-25.04</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>-28.12</v>
+        <v>-25.06</v>
       </c>
       <c r="T8" t="n">
-        <v>-28.56</v>
+        <v>-26.62</v>
       </c>
       <c r="U8" t="n">
-        <v>-24.44</v>
+        <v>-8.89</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-19.9</v>
+        <v>8.47</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.48</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1988,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-5.45</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-3.03</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -2009,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>-3.09</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-3.12</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>-2.78</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-2.52</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.48</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.99</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-11.49</v>
+        <v>1.49</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2148,13 +2148,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-8.44</v>
+        <v>9.15</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-9.61</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2169,19 +2169,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.51</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.57</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.91</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-7.69</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.22</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2290,31 +2290,31 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-19.09</v>
+        <v>7.65</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-49.74</v>
+        <v>-13.49</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-13.12</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-13.03</v>
+        <v>15.35</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-28.62</v>
+        <v>-16.45</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2329,25 +2329,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-28.96</v>
+        <v>-17.85</v>
       </c>
       <c r="T13" t="n">
-        <v>-28.62</v>
+        <v>-15.91</v>
       </c>
       <c r="U13" t="n">
-        <v>-24.06</v>
+        <v>0.73</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-13.61</v>
+        <v>38.52</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-13.2</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.38</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.34</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>-15.42</v>
+        <v>-2.72</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -2468,13 +2468,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>-12.79</v>
+        <v>1.9</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-19.04</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2489,19 +2489,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>-19.71</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>-19.99</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>-16.84</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-12.44</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-15.68</v>
+        <v>-3.48</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2548,13 +2548,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-13.26</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-18.09</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2569,19 +2569,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-18.68</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-18.89</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-16.39</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-12.78</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2628,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>-153.26</v>
+        <v>-145.78</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-102.47</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2655,13 +2655,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-147.6</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-97.43</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-42.31</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-75.05</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-76.27</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2948,13 +2948,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-276.93</v>
+        <v>-119.46</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-148.68</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2975,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>-147.6</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-143.17</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-18.67</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-8.13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-10.73</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3188,13 +3188,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-87.81</v>
+        <v>-97.46</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-25.37</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>-24.87</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3250,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.29</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-4.59</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -3348,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-2.62</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>-6.83</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3428,7 +3428,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-5.24</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-9.85</v>
+        <v>-1.09</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3505,43 +3505,43 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-15.77</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-3.88</v>
+        <v>39.21</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-14.75</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-18.54</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-14.43</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-15.36</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-15.08</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-14.35</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-13.91</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-6.82</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3588,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-6.09</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>-8.62</v>
+        <v>13.48</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -3668,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-5.97</v>
+        <v>21.36</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.96</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-3.83</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3810,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.86</v>
+        <v>7.08</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-5.84</v>
+        <v>17.28</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3890,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>-10.62</v>
+        <v>-2.42</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-14.12</v>
+        <v>-3.56</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3908,13 +3908,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-9.81</v>
+        <v>4.86</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-6.14</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3932,16 +3932,16 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-6.09</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>-5.74</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>-5.7</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>-8.23</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-8.16</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -4210,13 +4210,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.11</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.12</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.08</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.93</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -4308,7 +4308,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.91</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4370,31 +4370,31 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>-12.39</v>
+        <v>5.61</v>
       </c>
       <c r="G39" t="n">
-        <v>-18.22</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-27.36</v>
+        <v>-5.66</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-18.49</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-6.19</v>
+        <v>22.16</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>-27.36</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -4406,28 +4406,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>-24.91</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>-26.73</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>-24.29</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>-18.23</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>4.53</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>-20.2</v>
+        <v>0</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.3</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -4468,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-6.27</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>-5.49</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -4489,19 +4489,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>-5.26</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>-5.39</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>-4.52</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-3.45</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -4530,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>-14.27</v>
+        <v>-6.43</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -4548,13 +4548,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-13.66</v>
+        <v>-3.7</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-15.43</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -4569,19 +4569,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-15.76</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-15.67</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-15.26</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>-14.73</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>-11.11</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -4628,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>-11.55</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4690,13 +4690,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>-18.23</v>
+        <v>-1.11</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>-20.91</v>
+        <v>-1.38</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4708,13 +4708,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>-14.05</v>
+        <v>6.54</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-4.44</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -4729,19 +4729,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>-4.44</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>-4.44</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>-4.42</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>-4.38</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>-15.69</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>-15.25</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>-16.62</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>-13.02</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>-12.86</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -5330,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>-58.79</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>-57.61</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -5348,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>-40.98</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>-38.48</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>-20.76</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -5570,13 +5570,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>-81.52</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>-78.93</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -5588,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>-119.31</v>
+        <v>-68.4</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>-11.33</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -5730,13 +5730,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>-38.12</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-36.57</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>-26.99</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -5828,13 +5828,13 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>-176.68</v>
+        <v>-103.85</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>-137.57</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>-45.89</v>
+        <v>0</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -5855,13 +5855,13 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>-121.94</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>-114.88</v>
+        <v>0</v>
       </c>
       <c r="X57" t="n">
         <v>0</v>
@@ -5908,13 +5908,13 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>-143.2</v>
+        <v>-97.46</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>-22.95</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>-22.8</v>
+        <v>0</v>
       </c>
       <c r="X58" t="n">
         <v>0</v>
@@ -5988,13 +5988,13 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>-460.79</v>
+        <v>-244.16</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>-380.65</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -6015,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>-361.47</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>-368.85</v>
+        <v>0</v>
       </c>
       <c r="X59" t="n">
         <v>0</v>
@@ -6068,13 +6068,13 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>-221.23</v>
+        <v>-263.57</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>-191.36</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -6095,13 +6095,13 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>-162.91</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>-163.38</v>
+        <v>0</v>
       </c>
       <c r="X60" t="n">
         <v>0</v>
@@ -6148,13 +6148,13 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>-23.93</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>-25.89</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>-23.73</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>-22.46</v>
+        <v>0</v>
       </c>
       <c r="X61" t="n">
         <v>0</v>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>-7.06</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>-12.11</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -6308,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>-346.01</v>
+        <v>-199.25</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>-162.84</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -6335,13 +6335,13 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>-159.61</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>-155.05</v>
+        <v>0</v>
       </c>
       <c r="X63" t="n">
         <v>0</v>
@@ -6388,13 +6388,13 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>-415.76</v>
+        <v>-263.57</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>-354.34</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>-301.45</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>-305</v>
+        <v>0</v>
       </c>
       <c r="X64" t="n">
         <v>0</v>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>-358.43</v>
+        <v>-221.73</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>-328.47</v>
+        <v>-90.27</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>-270.51</v>
+        <v>-8.27</v>
       </c>
       <c r="X65" t="n">
         <v>0</v>
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>-3.39</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>-3.16</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -6628,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>-13.95</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>-23.4</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -6655,13 +6655,13 @@
         <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>-23.09</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>-23.16</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
         <v>0</v>
@@ -6868,7 +6868,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>-5.07</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>-13.02</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -7588,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>-12.86</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
